--- a/questionnaire/工作室测评题/职业锚测评.xlsx
+++ b/questionnaire/工作室测评题/职业锚测评.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16005" windowHeight="10200"/>
+    <workbookView windowWidth="14595" windowHeight="5970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -480,31 +480,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -516,151 +654,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,10 +943,10 @@
     <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,16 +955,16 @@
     <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -982,112 +976,112 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1520,8 +1514,8 @@
   <sheetPr/>
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B34" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.5" outlineLevelCol="7"/>
